--- a/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>12.0414541796166</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.1654569698432457</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.1369481133787689</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.4217527083110341</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.034547933685609</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -864,10 +872,18 @@
       <c r="H12" t="n">
         <v>35.13760333595164</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>0.1054748360185471</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04603558480375656</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.9714502200944235</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.200712507002736</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -898,10 +914,18 @@
       <c r="H13" t="n">
         <v>14.50846468908198</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>-0.02713269210245115</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.1071674939004506</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.598798363972762</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.708747698783124</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -932,10 +956,18 @@
       <c r="H14" t="n">
         <v>8.899143970374983</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>-0.06622842042182196</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.09694862478115245</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.2725373584899253</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.561925405595501</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -966,10 +998,18 @@
       <c r="H15" t="n">
         <v>23.21284737277145</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>-0.06970951543867017</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.08317152937608577</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.2578607092615042</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.805744642355887</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1036,10 +1076,18 @@
       <c r="H17" t="n">
         <v>9.879344413863954</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>-0.3616129562468736</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1421304991736817</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2505153130106562</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.960801187805391</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">

--- a/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
@@ -1118,10 +1118,18 @@
       <c r="H18" t="n">
         <v>14.55164498862496</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>-0.2809526231947743</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1328999324788512</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.01258305283788508</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.984619266005203</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
@@ -552,19 +552,19 @@
         <v>0.09863013698630137</v>
       </c>
       <c r="D3" t="n">
-        <v>113009.2181907091</v>
+        <v>112968.7424453835</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03760767828596474</v>
+        <v>-0.03954900361912312</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1544431070624795</v>
+        <v>0.1616227338645521</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9287313495447428</v>
+        <v>-1.270859742402559</v>
       </c>
       <c r="H3" t="n">
-        <v>9.088853786943302</v>
+        <v>12.16291941517945</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -586,19 +586,19 @@
         <v>0.1945205479452055</v>
       </c>
       <c r="D4" t="n">
-        <v>113794.93915512</v>
+        <v>113787.5838315562</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03155163814725283</v>
+        <v>-0.03183702583983396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1800187859962148</v>
+        <v>0.1809870267588685</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.350441759860201</v>
+        <v>-1.381491378692296</v>
       </c>
       <c r="H4" t="n">
-        <v>11.24030123841816</v>
+        <v>11.47201725257162</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.2712328767123288</v>
       </c>
       <c r="D5" t="n">
-        <v>114595.9633827693</v>
+        <v>114552.5222494029</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02771007616628469</v>
+        <v>-0.02981518386984432</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1808782438398806</v>
+        <v>0.1896711815953528</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.5561278391948314</v>
+        <v>-0.8650624023909192</v>
       </c>
       <c r="H5" t="n">
-        <v>6.035307434488191</v>
+        <v>8.059864369643448</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3479452054794521</v>
       </c>
       <c r="D6" t="n">
-        <v>115089.599105388</v>
+        <v>115085.5785533276</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03674664113730792</v>
+        <v>-0.03692796229467925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2232108515782077</v>
+        <v>0.2240855308653421</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.389876337054078</v>
+        <v>-1.420633274823637</v>
       </c>
       <c r="H6" t="n">
-        <v>11.0967726026987</v>
+        <v>11.41200339272869</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4438356164383562</v>
       </c>
       <c r="D7" t="n">
-        <v>115797.6425187768</v>
+        <v>116240.434269028</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.08065010840062689</v>
+        <v>-0.06546078847180872</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4102138702724536</v>
+        <v>0.3562984915249692</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.404140521033943</v>
+        <v>-2.108840517063721</v>
       </c>
       <c r="H7" t="n">
-        <v>11.84303737593806</v>
+        <v>10.1709523177209</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.7698630136986301</v>
       </c>
       <c r="D8" t="n">
-        <v>116775.3398704181</v>
+        <v>116769.1146647389</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.05048049358751294</v>
+        <v>-0.04957733571440093</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2095889332038294</v>
+        <v>0.2023672551671724</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.391330308717476</v>
+        <v>-1.056944043934468</v>
       </c>
       <c r="H8" t="n">
-        <v>11.10123195343464</v>
+        <v>7.673201779996237</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8465753424657534</v>
       </c>
       <c r="D9" t="n">
-        <v>118335.2589240287</v>
+        <v>118345.1182495731</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07929253746163945</v>
+        <v>-0.07919362700215299</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3207026036962312</v>
+        <v>0.3212714182374238</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.603747102241274</v>
+        <v>-1.629662202438512</v>
       </c>
       <c r="H9" t="n">
-        <v>10.26733472052208</v>
+        <v>10.54870345197539</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.095890410958904</v>
       </c>
       <c r="D10" t="n">
-        <v>119805.6760722943</v>
+        <v>119806.3499882844</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1233557773894513</v>
+        <v>-0.1226619770883319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.450037921272647</v>
+        <v>0.4447509084743156</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.949991600422538</v>
+        <v>-1.885463991160664</v>
       </c>
       <c r="H10" t="n">
-        <v>9.987236046899573</v>
+        <v>9.429761374249825</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.342465753424658</v>
       </c>
       <c r="D11" t="n">
-        <v>121746.2988735656</v>
+        <v>121729.4470996111</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1901808428920695</v>
+        <v>-0.1976327567257077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7083666098597174</v>
+        <v>0.7653732441717875</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.265380754812355</v>
+        <v>-2.519908501056003</v>
       </c>
       <c r="H11" t="n">
-        <v>9.848570126029841</v>
+        <v>11.95299193332507</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D12" t="n">
-        <v>112265.3034907672</v>
+        <v>112295.7497965587</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1156781014256024</v>
+        <v>-0.1118196009973569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1915354593340948</v>
+        <v>0.1618885395613342</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.826201384577298</v>
+        <v>-0.8133118367470256</v>
       </c>
       <c r="H12" t="n">
-        <v>35.13760333595164</v>
+        <v>6.827669612106231</v>
       </c>
       <c r="I12" t="n">
         <v>0.1054748360185471</v>
@@ -984,19 +984,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D15" t="n">
-        <v>112270.2172573418</v>
+        <v>112327.6476736164</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.09363150885837573</v>
+        <v>-0.08804383595053202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.206571441131718</v>
+        <v>0.1730282299836449</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.266809429809612</v>
+        <v>-0.761758443683565</v>
       </c>
       <c r="H15" t="n">
-        <v>23.21284737277145</v>
+        <v>8.70075964703963</v>
       </c>
       <c r="I15" t="n">
         <v>-0.06970951543867017</v>
@@ -1104,19 +1104,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D18" t="n">
-        <v>113004.895397839</v>
+        <v>113160.2936710395</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.04096230614948878</v>
+        <v>-0.03188543207222456</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1867830528405681</v>
+        <v>0.1508630638501899</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.731473698379662</v>
+        <v>-0.4811946359707147</v>
       </c>
       <c r="H18" t="n">
-        <v>14.55164498862496</v>
+        <v>6.434900174995059</v>
       </c>
       <c r="I18" t="n">
         <v>-0.2809526231947743</v>
@@ -1146,19 +1146,19 @@
         <v>0.07945205479452055</v>
       </c>
       <c r="D19" t="n">
-        <v>113030.6242479569</v>
+        <v>113309.6656998081</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.04154584330061251</v>
+        <v>-0.02816224707698761</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1896758920673241</v>
+        <v>0.1466049474310317</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.048144643757067</v>
+        <v>-0.5929151213337743</v>
       </c>
       <c r="H19" t="n">
-        <v>17.05013056151614</v>
+        <v>7.100451824675623</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1180,19 +1180,19 @@
         <v>0.1178082191780822</v>
       </c>
       <c r="D20" t="n">
-        <v>113824.0317388585</v>
+        <v>114253.6463753975</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.02344992909980384</v>
+        <v>-0.006348963872414823</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1876505169770872</v>
+        <v>0.1402737577276532</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.884000579073628</v>
+        <v>-0.4545997911603533</v>
       </c>
       <c r="H20" t="n">
-        <v>14.57136734520261</v>
+        <v>6.186288621977192</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>

--- a/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>12.16291941517945</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.10886480415365</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1790893253320955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.1904350325793641</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.016583422333939</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1160,10 +1168,18 @@
       <c r="H19" t="n">
         <v>7.100451824675623</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.1182539740579389</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1891472473056864</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.1466619367907994</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.951782461361968</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
@@ -1210,10 +1210,18 @@
       <c r="H20" t="n">
         <v>6.186288621977192</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.05808045239458798</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2399996375480334</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.237099825084014</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.554812062321973</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
+++ b/data_processed/20250821/BTCUSDQMOMENT_20250821.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>11.47201725257162</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.02340473408778189</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4906560012967206</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.748530925748327</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.213228907425157</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
